--- a/Scripts_LTS/01_Script/Templates/TEMPLATE_SWQT_summary_PRODUCTNAME_OEM_PROJECTID.xlsx
+++ b/Scripts_LTS/01_Script/Templates/TEMPLATE_SWQT_summary_PRODUCTNAME_OEM_PROJECTID.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/francois_glenard_capgemini_com/Documents/Documents/01 - Missions/03 - Plastic Omnium/WP1/Process/SWE4, 5, 6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini.sharepoint.com/sites/POSoftwareHouseDelivery/Shared Documents/General/9- WP1 (Agile, Process and Toolchain)/2 - Process delivery/22 - SWE4,5,6 tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C87B142-017B-42F2-BA44-3439CDB980D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{CB922E89-5A0B-4B6B-AF54-44C41B600011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B258DC2-D7E7-4C9D-9141-125419EDB597}"/>
   <bookViews>
     <workbookView xWindow="-13875" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{CCE3464C-EF48-4DDF-8654-2A5A42A97AB4}"/>
   </bookViews>
